--- a/05_Gestantes/02_procedimentos/gestantes-procedimentos.xlsx
+++ b/05_Gestantes/02_procedimentos/gestantes-procedimentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\dimensionamento\05_Gestantes\02_procedimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7DBC46-5ED6-4CC8-A96F-0E9D2FD884C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451C186E-45C6-47AB-BC4F-84577D2055C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC31C373-E3F7-4992-8D1A-97AF9B840EA0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$H$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="106">
   <si>
     <t>mes</t>
   </si>
@@ -365,13 +365,22 @@
   </si>
   <si>
     <t>0205020500</t>
+  </si>
+  <si>
+    <t>Cardiologista</t>
+  </si>
+  <si>
+    <t>Apoio</t>
+  </si>
+  <si>
+    <t>Técnico de enfermagem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,12 +393,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -780,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAFD96C-77D6-40DC-8EDF-614F7D8276E7}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,12 +794,13 @@
     <col min="1" max="1" width="24.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="20.6640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="42.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>56</v>
       </c>
@@ -821,8 +825,11 @@
       <c r="H1" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -848,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
@@ -874,7 +881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -900,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
@@ -926,7 +933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
@@ -952,7 +959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>54</v>
       </c>
@@ -978,7 +985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
@@ -1004,7 +1011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
@@ -1030,7 +1037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
@@ -1056,7 +1063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
@@ -1108,7 +1115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
@@ -1134,7 +1141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -1160,7 +1167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>53</v>
       </c>
@@ -1186,7 +1193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -1654,7 +1661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
@@ -1680,7 +1687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>40</v>
       </c>
@@ -1706,7 +1713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>41</v>
       </c>
@@ -1732,7 +1739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>45</v>
       </c>
@@ -1758,7 +1765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -1784,7 +1791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -1810,7 +1817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>89</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>86</v>
       </c>
@@ -1862,7 +1869,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>95</v>
       </c>
@@ -1888,7 +1895,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>94</v>
       </c>
@@ -1914,7 +1921,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>84</v>
       </c>
@@ -1940,7 +1947,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>99</v>
       </c>
@@ -1966,7 +1973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>63</v>
       </c>
@@ -1992,7 +1999,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>40</v>
       </c>
@@ -2018,7 +2025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>73</v>
       </c>
@@ -2043,8 +2050,11 @@
       <c r="H48" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>80</v>
       </c>
@@ -2070,7 +2080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>79</v>
       </c>
@@ -2096,7 +2106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>82</v>
       </c>
@@ -2122,7 +2132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>76</v>
       </c>
@@ -2148,7 +2158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>67</v>
       </c>
@@ -2171,10 +2181,13 @@
         <v>6</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>64</v>
       </c>
@@ -2200,7 +2213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>71</v>
       </c>
@@ -2226,7 +2239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>51</v>
       </c>
@@ -2252,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>102</v>
       </c>
@@ -2278,7 +2291,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>69</v>
       </c>
@@ -2304,7 +2317,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>39</v>
       </c>
@@ -2330,7 +2343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>37</v>
       </c>
@@ -2356,7 +2369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>89</v>
       </c>
@@ -2382,7 +2395,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>86</v>
       </c>
@@ -2408,7 +2421,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>84</v>
       </c>
@@ -2434,7 +2447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>99</v>
       </c>
@@ -2877,11 +2890,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H80" xr:uid="{DBAFD96C-77D6-40DC-8EDF-614F7D8276E7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H80">
-      <sortCondition ref="B1:B80"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:I1" xr:uid="{DBAFD96C-77D6-40DC-8EDF-614F7D8276E7}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
